--- a/categories_etl.xlsx
+++ b/categories_etl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\three\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89918DA2-10E2-4C5F-8B4F-B272ACBD38B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5871C29-8AA5-43C7-9114-B7ED531006D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3567,7 +3567,7 @@
   <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B214"/>
+      <selection activeCell="B1" sqref="B1:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,8 +3581,8 @@
         <v>214</v>
       </c>
       <c r="B1" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO three.game_category (name)  VALUES (","'",A1,"');")</f>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A boy’s name');</v>
+        <f>_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A1,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A boy’s name');</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,8 +3590,8 @@
         <v>215</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("INSERT INTO three.game_category (name)  VALUES (","'",A2,"');")</f>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A river');</v>
+        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A2,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A river');</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' An animal');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' An animal');</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that are cold');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are cold');</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Insects');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Insects');</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' TV Shows');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' TV Shows');</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that grow');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that grow');</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Fruits');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fruits');</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that are black');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are black');</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' School subjects');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School subjects');</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Movie titles');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Movie titles');</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Musical Instruments');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Musical Instruments');</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Authors');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Authors');</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Bodies of water');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bodies of water');</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A bird');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A bird');</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Countries');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Countries');</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Cartoon characters');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cartoon characters');</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Holidays');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Holidays');</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that are square');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are square');</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' In the NWT (Northwest Territories, Canada)');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' In the NWT (Northwest Territories, Canada)');</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Clothing');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Clothing');</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A relative');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A relative');</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Games');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Games');</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Sports Stars');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports Stars');</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' School supplies');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School supplies');</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that are hot');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are hot');</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Heroes');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Heroes');</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A girl’s name');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A girl’s name');</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Fears');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fears');</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' TV Stars');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' TV Stars');</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Colors');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Colors');</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A fish');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A fish');</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Fruits');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fruits');</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Provinces or States');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Provinces or States');</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Sports equipment');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports equipment');</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Tools');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Tools');</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Breakfast foods');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Breakfast foods');</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Gifts');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Gifts');</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Flowers');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Flowers');</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Ice cream flavors');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ice cream flavors');</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A drink');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A drink');</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Toys');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Toys');</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Cities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cities');</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things in the kitchen');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in the kitchen');</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Ocean things');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ocean things');</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Nicknames');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Nicknames');</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Hobbies');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Hobbies');</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Parts of the body');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parts of the body');</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Sandwiches');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sandwiches');</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items in a catalog');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a catalog');</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' World leaders/Poloticians');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' World leaders/Poloticians');</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' School subjects');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School subjects');</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Excuses for being late');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Excuses for being late');</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Ice cream flavors');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ice cream flavors');</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that jump/bounce');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that jump/bounce');</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Television stars');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Television stars');</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things in a park');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a park');</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Foriegn cities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foriegn cities');</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Stones/Gems');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Stones/Gems');</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Nicknames');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Nicknames');</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things in the sky');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in the sky');</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Pizza toppings');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Pizza toppings');</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Colleges/Universities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Colleges/Universities');</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Fish');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fish');</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Countries');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Countries');</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4166,8 +4166,8 @@
         <v>274</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("INSERT INTO three.game_category (name)  VALUES (","'",A66,"');")</f>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that have spots');</v>
+        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A66,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have spots');</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Historical Figures');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Historical Figures');</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Something you’re afraid oF');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Something you’re afraid oF');</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Terms of endearment');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Terms of endearment');</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items in this room');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in this room');</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Drugs that are abused');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Drugs that are abused');</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Fictional characters');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fictional characters');</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Menu items');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Menu items');</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Magazines');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Magazines');</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Capitals');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Capitals');</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Kinds of candy');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Kinds of candy');</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items you save up to buy');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items you save up to buy');</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Footware');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Footware');</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Something you keep hidden');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Something you keep hidden');</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items in a suitcase');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a suitcase');</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things with tails');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things with tails');</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Sports equiptment');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports equiptment');</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Crimes');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Crimes');</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that are sticky');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are sticky');</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Awards/ceremonies');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Awards/ceremonies');</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Cars');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cars');</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Spices/Herbs');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Spices/Herbs');</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Bad habits');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bad habits');</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Cosmetics/Toiletries');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cosmetics/Toiletries');</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Celebrities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Celebrities');</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Cooking utensils');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cooking utensils');</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Reptiles/Amphibians');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reptiles/Amphibians');</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Parks');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parks');</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Leisure activities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Leisure activities');</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you’re allergic to');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you’re allergic to');</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Restaurants');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Restaurants');</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Notorious people');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Notorious people');</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Fruits');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fruits');</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things in a medicine cabinet');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a medicine cabinet');</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Toys');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Toys');</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Household chores');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Household chores');</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Bodies of water');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bodies of water');</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Authors');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Authors');</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Halloween costumes');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Halloween costumes');</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Weapons');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Weapons');</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that are round');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are round');</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Words associated with exercise');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with exercise');</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Sports');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports');</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Song titles');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Song titles');</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Parts of the body');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parts of the body');</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Ethnic foods');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ethnic foods');</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you shout');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you shout');</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Birds');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Birds');</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' A girl’s name');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A girl’s name');</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Ways to get from here to there');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ways to get from here to there');</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items in a kitchen');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a kitchen');</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Villains');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Villains');</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Flowers');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Flowers');</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you replace');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you replace');</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Baby foods');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Baby foods');</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Famous duos and trios');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Famous duos and trios');</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things found in a desk');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in a desk');</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Vacation spots');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Vacation spots');</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Diseases');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Diseases');</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Words associated with money');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with money');</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items in a vending machine');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a vending machine');</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Movie Titles');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Movie Titles');</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Games');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Games');</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you wear');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you wear');</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4742,8 +4742,8 @@
         <v>330</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("INSERT INTO three.game_category (name)  VALUES (","'",A130,"');")</f>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Beers');</v>
+        <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A130,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Beers');</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things at a circus');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a circus');</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Vegetables');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Vegetables');</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' States');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' States');</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you throw away');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you throw away');</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Occupations');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Occupations');</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Appliances');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Appliances');</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Cartoon characters');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cartoon characters');</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Types of drinks');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Types of drinks');</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Musical groups');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Musical groups');</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Store names');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Store names');</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things at a football game');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a football game');</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Trees');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Trees');</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Personality traits');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Personality traits');</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Video games');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Video games');</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Electronic gadgets');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Electronic gadgets');</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Board games');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Board games');</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that use a remote');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that use a remote');</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Card games');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Card games');</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Internet lingo');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Internet lingo');</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Offensive words');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Offensive words');</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Wireless things');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Wireless things');</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Computer parts');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Computer parts');</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Software');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Software');</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Websites');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Websites');</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Game terms');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Game terms');</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things in a grocery store');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a grocery store');</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Reasons to quit your job');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to quit your job');</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that have stripes');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have stripes');</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Tourist attractions');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Tourist attractions');</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Diet foods');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Diet foods');</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things found in a hospital');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in a hospital');</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Food/Drink that is green');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Food/Drink that is green');</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Weekend Activities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Weekend Activities');</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Acronyms');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Acronyms');</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Seafood');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Seafood');</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Christmas songs');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Christmas songs');</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Words ending in “-n”');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words ending in “-n”');</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Words with double letters');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words with double letters');</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Children’s books');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Children’s books');</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things found at a bar');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found at a bar');</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Sports played outdoors');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports played outdoors');</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Names used in songs');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Names used in songs');</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Foods you eat raw');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foods you eat raw');</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Places in Europe');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Places in Europe');</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Olympic events');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Olympic events');</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you see at the zoo');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you see at the zoo');</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Math terms');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Math terms');</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Animals in books or movies');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Animals in books or movies');</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things to do at a party');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things to do at a party');</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Kinds of soup');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Kinds of soup');</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things found in New York');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in New York');</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you get tickets for');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you get tickets for');</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you do at work');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you do at work');</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Foreign words used in English');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foreign words used in English');</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you shouldn’t touch');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you shouldn’t touch');</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Spicy foods');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Spicy foods');</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things at a carnival');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a carnival');</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you make');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you make');</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Places to hangout');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Places to hangout');</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Animal noises');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Animal noises');</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Computer programs');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Computer programs');</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Honeymoon spots');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Honeymoon spots');</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you buy for kids');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you buy for kids');</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,8 +5318,8 @@
         <v>393</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B214" si="3">_xlfn.CONCAT("INSERT INTO three.game_category (name)  VALUES (","'",A194,"');")</f>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that can kill you');</v>
+        <f t="shared" ref="B194:B214" si="3">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A194,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that can kill you');</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B195" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Reasons to take out a loan');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to take out a loan');</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B196" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Words associated with winter');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with winter');</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things to do on a date');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things to do on a date');</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Historic events');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Historic events');</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you store items in');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you store items in');</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you do everyday');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you do everyday');</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you get in the mail');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you get in the mail');</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you save up to buy');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you save up to buy');</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things you sit/on');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you sit/on');</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Reasons to make a phone call');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to make a phone call');</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Types of weather');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Types of weather');</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Titles people can have');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Titles people can have');</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that have buttons');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have buttons');</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Items you take on a road trip');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items you take on a road trip');</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that have wheels');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have wheels');</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Reasons to call 911');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to call 911');</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that make you smile');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that make you smile');</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Ways to kill time');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ways to kill time');</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Things that can get you fired');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that can get you fired');</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_category (name)  VALUES (' Holiday Activities');</v>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Holiday Activities');</v>
       </c>
     </row>
   </sheetData>

--- a/categories_etl.xlsx
+++ b/categories_etl.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\three\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5871C29-8AA5-43C7-9114-B7ED531006D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAA755-DB0F-478A-85DA-0FFB13ED39AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SV Reviewed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="452">
   <si>
     <t>1. A boy’s name</t>
   </si>
@@ -1268,6 +1269,120 @@
   </si>
   <si>
     <t xml:space="preserve"> Holiday Activities</t>
+  </si>
+  <si>
+    <t>Athletes</t>
+  </si>
+  <si>
+    <t>Things in the ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World leaders/Politicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Items in your room</t>
+  </si>
+  <si>
+    <t>A capital city</t>
+  </si>
+  <si>
+    <t>Types of candy</t>
+  </si>
+  <si>
+    <t>Type of soup</t>
+  </si>
+  <si>
+    <t>Things that are red</t>
+  </si>
+  <si>
+    <t>Things in your car</t>
+  </si>
+  <si>
+    <t>Word that ends with this letter</t>
+  </si>
+  <si>
+    <t>Medical terms</t>
+  </si>
+  <si>
+    <t>Movie title</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Countries in Asia</t>
+  </si>
+  <si>
+    <t>Countries in Africa</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Country or city in South America</t>
+  </si>
+  <si>
+    <t>Songs before 2000</t>
+  </si>
+  <si>
+    <t>Songs after 2000</t>
+  </si>
+  <si>
+    <t>Things made of glass</t>
+  </si>
+  <si>
+    <t>Things that can break</t>
+  </si>
+  <si>
+    <t>Things that are flat</t>
+  </si>
+  <si>
+    <t>Things made of wood</t>
+  </si>
+  <si>
+    <t>Mammal</t>
+  </si>
+  <si>
+    <t>Things that have wheels</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Things in a mall</t>
+  </si>
+  <si>
+    <t>Things that use electricity</t>
+  </si>
+  <si>
+    <t>Science terms</t>
+  </si>
+  <si>
+    <t>Something you see in Canada</t>
+  </si>
+  <si>
+    <t>Things at a sports game</t>
+  </si>
+  <si>
+    <t>Magazines</t>
+  </si>
+  <si>
+    <t>Things that are slow</t>
+  </si>
+  <si>
+    <t>Things that cost more than $1000 USD</t>
+  </si>
+  <si>
+    <t>Things at the dollar store</t>
+  </si>
+  <si>
+    <t>Things at a picnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television shows</t>
   </si>
 </sst>
 </file>
@@ -3566,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C119DD7-C88D-463D-A525-FC7F3964D98C}">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B29"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A73" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,4 +5620,1022 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E6FAE-43AF-4962-90B6-711E127DF19D}">
+  <dimension ref="A1:A200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/categories_etl.xlsx
+++ b/categories_etl.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\three\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAA755-DB0F-478A-85DA-0FFB13ED39AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDF56B-11AC-4509-8611-D46E45E37794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="SV Reviewed" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="SV Reviewed" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="452">
   <si>
     <t>1. A boy’s name</t>
   </si>
@@ -3681,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C119DD7-C88D-463D-A525-FC7F3964D98C}">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A73" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A85" sqref="A1:B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5623,11 +5624,1826 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F93A09-C1B5-4BFB-BAA2-A4ED0DE8BA82}">
+  <dimension ref="A1:B200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B200" sqref="B1:B200"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A1,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A boy’s name');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A2,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A river');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' An animal');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are cold');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Insects');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Television shows');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that grow');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are black');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School subjects');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Movie titles');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Musical Instruments');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Authors');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bodies of water');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Countries');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cartoon characters');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Holidays');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are square');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Clothing');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Games');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Athletes');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School supplies');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are hot');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Heroes');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A girl’s name');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fears');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Colors');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A fish');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fruits');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Provinces or States');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports equipment');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Tools');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Breakfast foods');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Flowers');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ice cream flavors');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Toys');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' US Cities');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in the kitchen');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things in the ocean');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Hobbies');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parts of the body');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sandwiches');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a catalog');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' World leaders/Politicians');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Excuses for being late');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that jump/bounce');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Television stars');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a park');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foriegn cities');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Stones/Gems');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in the sky');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Pizza toppings');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Colleges/Universities');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have spots');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Historical Figures');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in your room');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fictional characters');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Menu items');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Magazines');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('A capital city');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Types of candy');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Footware');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Something you keep hidden');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a suitcase');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things with tails');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Crimes');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A66,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are sticky');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Awards/ceremonies');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cars');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Spices/Herbs');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bad habits');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cosmetics/Toiletries');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Celebrities');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>299</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cooking utensils');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reptiles/Amphibians');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parks');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Leisure activities');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you’re allergic to');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>304</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Restaurants');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a medicine cabinet');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Household chores');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Halloween costumes');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Weapons');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are round');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with exercise');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Song titles');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you shout');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Birds');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ways to get from here to there');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>319</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Villains');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you replace');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Famous duos and trios');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>323</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in a desk');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>324</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Vacation spots');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Diseases');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>326</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with money');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>327</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a vending machine');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you wear');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a circus');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Vegetables');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you throw away');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Occupations');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>336</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Appliances');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>337</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Types of drinks');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Musical groups');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>340</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a football game');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>342</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Personality traits');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>343</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Video games');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>344</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Electronic gadgets');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>345</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Board games');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that use a remote');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Card games');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>348</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Internet lingo');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>349</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Offensive words');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Wireless things');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>351</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Computer parts');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Websites');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Game terms');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a grocery store');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to quit your job');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>357</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have stripes');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>358</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Tourist attractions');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in a hospital');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Food/Drink that is green');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Weekend Activities');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Acronyms');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>364</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Seafood');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Christmas songs');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>366</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words ending in “-n”');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>367</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A130,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words with double letters');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>368</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Children’s books');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found at a bar');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Names used in songs');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foods you eat raw');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>373</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Places in Europe');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Olympic events');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you see at the zoo');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>376</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Math terms');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Animals in books or movies');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things to do at a party');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>421</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Type of soup');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>380</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in New York');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you get tickets for');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>382</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you do at work');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>383</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foreign words used in English');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>384</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you shouldn’t touch');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Spicy foods');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a carnival');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you make');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>388</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Places to hangout');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Animal noises');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>390</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Computer programs');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>391</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Honeymoon spots');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>392</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you buy for kids');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that can kill you');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>394</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to take out a loan');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>395</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with winter');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>396</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things to do on a date');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>397</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Historic events');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>398</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you store items in');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>399</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you do everyday');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>400</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you get in the mail');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>402</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you sit/on');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>403</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to make a phone call');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>404</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Types of weather');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>405</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Titles people can have');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>406</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have buttons');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>407</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items you take on a road trip');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>409</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to call 911');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>410</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that make you smile');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>411</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ways to kill time');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>412</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that can get you fired');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>413</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Holiday Activities');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>422</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that are red');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>423</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things in your car');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>424</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Word that ends with this letter');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>425</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Medical terms');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>426</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Movie title');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>427</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Dessert');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>428</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Countries in Asia');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>429</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Countries in Africa');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>431</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Country or city in South America');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>432</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Songs before 2000');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>433</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Songs after 2000');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>434</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things made of glass');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that can break');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>436</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that are flat');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>437</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things made of wood');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>440</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Brands');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>438</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Mammal');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>439</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that have wheels');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things in a mall');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that use electricity');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>443</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" ref="B194:B214" si="3">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A194,"');")</f>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Science terms');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>444</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Something you see in Canada');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>445</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things at a sports game');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>447</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that are slow');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>448</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that cost more than $1000 USD');</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>449</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things at the dollar store');</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>450</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things at a picnic');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E6FAE-43AF-4962-90B6-711E127DF19D}">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/categories_etl.xlsx
+++ b/categories_etl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\three\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xue Khang\source\repos\xuekhang\three\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDF56B-11AC-4509-8611-D46E45E37794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5612770-52E7-4125-BAE7-66096E6DA03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="2" xr2:uid="{DD59209E-5410-4DEE-A3D9-F294B4A55FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5628,7 +5637,7 @@
   <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B200" sqref="B1:B200"/>
+      <selection activeCell="B1" sqref="B1:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,8 +5647,8 @@
         <v>214</v>
       </c>
       <c r="B1" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A1,"');")</f>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A boy’s name');</v>
+        <f>_xlfn.CONCAT("INSERT INTO game_globalcategory (name, created_on)  VALUES (","'",A1,"', now());")</f>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' A boy’s name', now());</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5647,8 +5656,8 @@
         <v>215</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A2,"');")</f>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A river');</v>
+        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("INSERT INTO game_globalcategory (name, created_on)  VALUES (","'",A2,"', now());")</f>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' A river', now());</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5657,7 +5666,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' An animal');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' An animal', now());</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5666,7 +5675,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are cold');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that are cold', now());</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5675,7 +5684,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Insects');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Insects', now());</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5693,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Television shows');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Television shows', now());</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5693,7 +5702,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that grow');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that grow', now());</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5702,7 +5711,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are black');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that are black', now());</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5711,7 +5720,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School subjects');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' School subjects', now());</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5720,7 +5729,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Movie titles');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Movie titles', now());</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5729,7 +5738,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Musical Instruments');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Musical Instruments', now());</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5738,7 +5747,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Authors');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Authors', now());</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5747,7 +5756,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bodies of water');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Bodies of water', now());</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5765,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Countries');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Countries', now());</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5765,7 +5774,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cartoon characters');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Cartoon characters', now());</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5774,7 +5783,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Holidays');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Holidays', now());</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5783,7 +5792,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are square');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that are square', now());</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,7 +5801,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Clothing');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Clothing', now());</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5801,7 +5810,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Games');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Games', now());</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5810,7 +5819,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Athletes');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Athletes', now());</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5819,7 +5828,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' School supplies');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' School supplies', now());</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5837,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are hot');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that are hot', now());</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5837,7 +5846,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Heroes');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Heroes', now());</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5846,7 +5855,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A girl’s name');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' A girl’s name', now());</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5855,7 +5864,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fears');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Fears', now());</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5864,7 +5873,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Colors');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Colors', now());</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5873,7 +5882,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' A fish');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' A fish', now());</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5882,7 +5891,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fruits');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Fruits', now());</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5891,7 +5900,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Provinces or States');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Provinces or States', now());</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5909,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports equipment');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Sports equipment', now());</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5909,7 +5918,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Tools');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Tools', now());</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5918,7 +5927,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Breakfast foods');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Breakfast foods', now());</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5927,7 +5936,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Flowers');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Flowers', now());</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +5945,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ice cream flavors');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Ice cream flavors', now());</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5945,7 +5954,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Toys');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Toys', now());</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5954,7 +5963,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' US Cities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' US Cities', now());</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5963,7 +5972,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in the kitchen');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things in the kitchen', now());</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5981,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things in the ocean');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things in the ocean', now());</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5981,7 +5990,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Hobbies');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Hobbies', now());</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5990,7 +5999,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parts of the body');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Parts of the body', now());</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5999,7 +6008,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sandwiches');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Sandwiches', now());</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,7 +6017,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a catalog');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Items in a catalog', now());</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -6017,7 +6026,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' World leaders/Politicians');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' World leaders/Politicians', now());</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -6026,7 +6035,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Excuses for being late');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Excuses for being late', now());</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6035,7 +6044,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that jump/bounce');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that jump/bounce', now());</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -6044,7 +6053,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Television stars');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Television stars', now());</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -6053,7 +6062,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a park');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things in a park', now());</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -6062,7 +6071,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foriegn cities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Foriegn cities', now());</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -6071,7 +6080,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Stones/Gems');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Stones/Gems', now());</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6089,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in the sky');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things in the sky', now());</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6089,7 +6098,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Pizza toppings');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Pizza toppings', now());</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -6098,7 +6107,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Colleges/Universities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Colleges/Universities', now());</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -6107,7 +6116,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have spots');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that have spots', now());</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,7 +6125,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Historical Figures');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Historical Figures', now());</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +6134,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in your room');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Items in your room', now());</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6134,7 +6143,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Fictional characters');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Fictional characters', now());</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -6143,7 +6152,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Menu items');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Menu items', now());</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6161,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Magazines');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Magazines', now());</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -6161,7 +6170,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('A capital city');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('A capital city', now());</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -6170,7 +6179,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Types of candy');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Types of candy', now());</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -6179,7 +6188,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Footware');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Footware', now());</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6197,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Something you keep hidden');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Something you keep hidden', now());</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -6197,7 +6206,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a suitcase');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Items in a suitcase', now());</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -6206,7 +6215,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things with tails');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things with tails', now());</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -6215,7 +6224,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Crimes');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Crimes', now());</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -6223,8 +6232,8 @@
         <v>292</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A66,"');")</f>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are sticky');</v>
+        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("INSERT INTO game_globalcategory (name, created_on)  VALUES (","'",A66,"', now());")</f>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that are sticky', now());</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -6233,7 +6242,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Awards/ceremonies');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Awards/ceremonies', now());</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -6242,7 +6251,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cars');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Cars', now());</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -6251,7 +6260,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Spices/Herbs');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Spices/Herbs', now());</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -6260,7 +6269,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Bad habits');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Bad habits', now());</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -6269,7 +6278,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cosmetics/Toiletries');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Cosmetics/Toiletries', now());</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -6278,7 +6287,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Celebrities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Celebrities', now());</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,7 +6296,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Cooking utensils');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Cooking utensils', now());</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6305,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reptiles/Amphibians');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Reptiles/Amphibians', now());</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -6305,7 +6314,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Parks');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Parks', now());</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -6314,7 +6323,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Leisure activities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Leisure activities', now());</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -6323,7 +6332,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you’re allergic to');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you’re allergic to', now());</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6341,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Restaurants');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Restaurants', now());</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -6341,7 +6350,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a medicine cabinet');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things in a medicine cabinet', now());</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6350,7 +6359,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Household chores');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Household chores', now());</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -6359,7 +6368,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Halloween costumes');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Halloween costumes', now());</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,7 +6377,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Weapons');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Weapons', now());</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -6377,7 +6386,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that are round');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that are round', now());</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -6386,7 +6395,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with exercise');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Words associated with exercise', now());</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -6395,7 +6404,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Sports');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Sports', now());</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6413,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Song titles');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Song titles', now());</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -6413,7 +6422,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you shout');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you shout', now());</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -6422,7 +6431,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Birds');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Birds', now());</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,7 +6440,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ways to get from here to there');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Ways to get from here to there', now());</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -6440,7 +6449,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Villains');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Villains', now());</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -6449,7 +6458,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you replace');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you replace', now());</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -6458,7 +6467,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Famous duos and trios');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Famous duos and trios', now());</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -6467,7 +6476,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in a desk');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things found in a desk', now());</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6485,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Vacation spots');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Vacation spots', now());</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -6485,7 +6494,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Diseases');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Diseases', now());</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -6494,7 +6503,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with money');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Words associated with money', now());</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6512,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items in a vending machine');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Items in a vending machine', now());</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6521,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you wear');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you wear', now());</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -6521,7 +6530,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a circus');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things at a circus', now());</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -6530,7 +6539,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Vegetables');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Vegetables', now());</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -6539,7 +6548,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you throw away');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you throw away', now());</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6557,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Occupations');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Occupations', now());</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +6566,7 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Appliances');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Appliances', now());</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -6566,7 +6575,7 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Types of drinks');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Types of drinks', now());</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6584,7 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Musical groups');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Musical groups', now());</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -6584,7 +6593,7 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a football game');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things at a football game', now());</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -6593,7 +6602,7 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Personality traits');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Personality traits', now());</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -6602,7 +6611,7 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Video games');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Video games', now());</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -6611,7 +6620,7 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Electronic gadgets');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Electronic gadgets', now());</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6629,7 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Board games');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Board games', now());</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,7 +6638,7 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that use a remote');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that use a remote', now());</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6647,7 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Card games');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Card games', now());</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -6647,7 +6656,7 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Internet lingo');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Internet lingo', now());</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6665,7 @@
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Offensive words');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Offensive words', now());</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6674,7 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Wireless things');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Wireless things', now());</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -6674,7 +6683,7 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Computer parts');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Computer parts', now());</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -6683,7 +6692,7 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Websites');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Websites', now());</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6701,7 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Game terms');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Game terms', now());</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -6701,7 +6710,7 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things in a grocery store');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things in a grocery store', now());</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -6710,7 +6719,7 @@
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to quit your job');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Reasons to quit your job', now());</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6719,7 +6728,7 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have stripes');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that have stripes', now());</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -6728,7 +6737,7 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Tourist attractions');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Tourist attractions', now());</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -6737,7 +6746,7 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in a hospital');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things found in a hospital', now());</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -6746,7 +6755,7 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Food/Drink that is green');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Food/Drink that is green', now());</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -6755,7 +6764,7 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Weekend Activities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Weekend Activities', now());</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6773,7 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Acronyms');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Acronyms', now());</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,7 +6782,7 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Seafood');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Seafood', now());</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6782,7 +6791,7 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Christmas songs');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Christmas songs', now());</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6791,7 +6800,7 @@
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words ending in “-n”');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Words ending in “-n”', now());</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -6799,8 +6808,8 @@
         <v>367</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A130,"');")</f>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words with double letters');</v>
+        <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("INSERT INTO game_globalcategory (name, created_on)  VALUES (","'",A130,"', now());")</f>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Words with double letters', now());</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -6809,7 +6818,7 @@
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Children’s books');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Children’s books', now());</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -6818,7 +6827,7 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found at a bar');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things found at a bar', now());</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -6827,7 +6836,7 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Names used in songs');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Names used in songs', now());</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6845,7 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foods you eat raw');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Foods you eat raw', now());</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +6854,7 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Places in Europe');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Places in Europe', now());</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,7 +6863,7 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Olympic events');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Olympic events', now());</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -6863,7 +6872,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you see at the zoo');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you see at the zoo', now());</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6881,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Math terms');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Math terms', now());</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,7 +6890,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Animals in books or movies');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Animals in books or movies', now());</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -6890,7 +6899,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things to do at a party');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things to do at a party', now());</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -6899,7 +6908,7 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Type of soup');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Type of soup', now());</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6917,7 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things found in New York');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things found in New York', now());</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +6926,7 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you get tickets for');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you get tickets for', now());</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -6926,7 +6935,7 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you do at work');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you do at work', now());</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -6935,7 +6944,7 @@
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Foreign words used in English');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Foreign words used in English', now());</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -6944,7 +6953,7 @@
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you shouldn’t touch');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you shouldn’t touch', now());</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -6953,7 +6962,7 @@
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Spicy foods');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Spicy foods', now());</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -6962,7 +6971,7 @@
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things at a carnival');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things at a carnival', now());</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -6971,7 +6980,7 @@
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you make');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you make', now());</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6989,7 @@
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Places to hangout');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Places to hangout', now());</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +6998,7 @@
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Animal noises');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Animal noises', now());</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -6998,7 +7007,7 @@
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Computer programs');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Computer programs', now());</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -7007,7 +7016,7 @@
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Honeymoon spots');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Honeymoon spots', now());</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -7016,7 +7025,7 @@
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you buy for kids');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you buy for kids', now());</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -7025,7 +7034,7 @@
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that can kill you');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that can kill you', now());</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -7034,7 +7043,7 @@
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to take out a loan');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Reasons to take out a loan', now());</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -7043,7 +7052,7 @@
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Words associated with winter');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Words associated with winter', now());</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7061,7 @@
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things to do on a date');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things to do on a date', now());</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -7061,7 +7070,7 @@
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Historic events');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Historic events', now());</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -7070,7 +7079,7 @@
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you store items in');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you store items in', now());</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -7079,7 +7088,7 @@
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you do everyday');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you do everyday', now());</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -7088,7 +7097,7 @@
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you get in the mail');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you get in the mail', now());</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -7097,7 +7106,7 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things you sit/on');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things you sit/on', now());</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -7106,7 +7115,7 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to make a phone call');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Reasons to make a phone call', now());</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -7115,7 +7124,7 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Types of weather');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Types of weather', now());</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7133,7 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Titles people can have');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Titles people can have', now());</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -7133,7 +7142,7 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that have buttons');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that have buttons', now());</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -7142,7 +7151,7 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Items you take on a road trip');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Items you take on a road trip', now());</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -7151,7 +7160,7 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Reasons to call 911');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Reasons to call 911', now());</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -7160,7 +7169,7 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that make you smile');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that make you smile', now());</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -7169,7 +7178,7 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Ways to kill time');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Ways to kill time', now());</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -7178,7 +7187,7 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Things that can get you fired');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Things that can get you fired', now());</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -7187,7 +7196,7 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES (' Holiday Activities');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES (' Holiday Activities', now());</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7205,7 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that are red');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that are red', now());</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -7205,7 +7214,7 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things in your car');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things in your car', now());</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -7214,7 +7223,7 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Word that ends with this letter');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Word that ends with this letter', now());</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7232,7 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Medical terms');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Medical terms', now());</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,7 +7241,7 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Movie title');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Movie title', now());</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7250,7 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Dessert');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Dessert', now());</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -7250,7 +7259,7 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Countries in Asia');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Countries in Asia', now());</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7268,7 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Countries in Africa');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Countries in Africa', now());</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7277,7 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Country or city in South America');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Country or city in South America', now());</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7286,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Songs before 2000');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Songs before 2000', now());</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7295,7 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Songs after 2000');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Songs after 2000', now());</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7304,7 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things made of glass');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things made of glass', now());</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -7304,7 +7313,7 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that can break');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that can break', now());</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7322,7 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that are flat');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that are flat', now());</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -7322,7 +7331,7 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things made of wood');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things made of wood', now());</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7340,7 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Brands');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Brands', now());</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7349,7 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Mammal');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Mammal', now());</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7358,7 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that have wheels');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that have wheels', now());</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -7358,7 +7367,7 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things in a mall');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things in a mall', now());</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7376,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that use electricity');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that use electricity', now());</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -7375,8 +7384,8 @@
         <v>443</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B214" si="3">_xlfn.CONCAT("INSERT INTO three.game_globalcategory (name)  VALUES (","'",A194,"');")</f>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Science terms');</v>
+        <f t="shared" ref="B194:B200" si="3">_xlfn.CONCAT("INSERT INTO game_globalcategory (name, created_on)  VALUES (","'",A194,"', now());")</f>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Science terms', now());</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7394,7 @@
       </c>
       <c r="B195" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Something you see in Canada');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Something you see in Canada', now());</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7403,7 @@
       </c>
       <c r="B196" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things at a sports game');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things at a sports game', now());</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7412,7 @@
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that are slow');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that are slow', now());</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7421,7 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things that cost more than $1000 USD');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things that cost more than $1000 USD', now());</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7430,7 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things at the dollar store');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things at the dollar store', now());</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -7430,7 +7439,7 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO three.game_globalcategory (name)  VALUES ('Things at a picnic');</v>
+        <v>INSERT INTO game_globalcategory (name, created_on)  VALUES ('Things at a picnic', now());</v>
       </c>
     </row>
   </sheetData>
